--- a/Computer_Database_TestCase_By_BashiniGamage.xlsx
+++ b/Computer_Database_TestCase_By_BashiniGamage.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewOfz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BashiniGamage\Documents\GitHub\OOLIO-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFA9B6-E4E5-4052-9681-AD6ACBCF76E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD00848-FE0E-4BCE-964B-770DB75726B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Traceability" sheetId="2" r:id="rId1"/>
+    <sheet name="Test Description &amp; Traceability" sheetId="2" r:id="rId1"/>
     <sheet name="Main Testcases" sheetId="1" r:id="rId2"/>
     <sheet name="Test Data" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -118,9 +118,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Visit https://computer-database.gatling.io/computers website</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
     <t>Verify add a discontinued date</t>
   </si>
   <si>
-    <t>1.4.0.1: Verify add a computer name</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -585,9 +579,6 @@
     <t>HP*&amp;</t>
   </si>
   <si>
-    <t>1.4.0.2: Verify add a introduced date</t>
-  </si>
-  <si>
     <t>Introduced date</t>
   </si>
   <si>
@@ -600,21 +591,6 @@
     <t>11-26-2022</t>
   </si>
   <si>
-    <t>1.4.0.3: Verify add a discontinued date</t>
-  </si>
-  <si>
-    <t>1.4.0.1 Test Data</t>
-  </si>
-  <si>
-    <t>1.4.0.2 Test Data</t>
-  </si>
-  <si>
-    <t>1.4.0.4 Test Data</t>
-  </si>
-  <si>
-    <t>1.4.0.3 Test Data</t>
-  </si>
-  <si>
     <t>1. Verify add a computer name</t>
   </si>
   <si>
@@ -631,9 +607,6 @@
   </si>
   <si>
     <t>Verify introduced date should be earlier than the discontinued date</t>
-  </si>
-  <si>
-    <t>1.4.0.4: Verify the dropdown data will be appeared when click on company dropdown</t>
   </si>
   <si>
     <t>Company</t>
@@ -977,9 +950,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2.0.0 Add a computer page</t>
-  </si>
-  <si>
     <t>2.1.0 Verify Add a new computer</t>
   </si>
   <si>
@@ -1339,6 +1309,36 @@
   </si>
   <si>
     <t>Failed to refine type : Predicate is Empty() did not fail.</t>
+  </si>
+  <si>
+    <t>2.0.0 Add a computer Page</t>
+  </si>
+  <si>
+    <t>Visit https://computer-database.gatling.io/computers</t>
+  </si>
+  <si>
+    <t>2.1.0.1 Test Data</t>
+  </si>
+  <si>
+    <t>2.1.0.1: Verify add a computer name</t>
+  </si>
+  <si>
+    <t>2.1.0.2 Test Data</t>
+  </si>
+  <si>
+    <t>2.1.0.2: Verify add a introduced date</t>
+  </si>
+  <si>
+    <t>2.1.0.3 Test Data</t>
+  </si>
+  <si>
+    <t>2.1.0.3: Verify add a discontinued date</t>
+  </si>
+  <si>
+    <t>2.1.0.4 Test Data</t>
+  </si>
+  <si>
+    <t>2.1.0.4: Verify the dropdown data will be appeared when click on company dropdown</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1571,59 +1571,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1631,26 +1585,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1669,6 +1605,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2051,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EF7CC7-9ECE-4A20-80DA-4CB74301BEE9}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2065,450 +2061,455 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="J2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="15">
+        <f t="array" ref="I3">'Main Testcases'!E4</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="array" ref="J3">'Main Testcases'!E5</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="array" ref="K3">'Main Testcases'!E6</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="array" ref="L3">'Main Testcases'!E7</f>
+        <v>52</v>
+      </c>
+      <c r="M3" s="15">
+        <f t="array" ref="M3">SUM(I3:L3)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="32">
+        <v>44894</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="32">
+        <v>44895</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="43">
-        <v>44894</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="43">
-        <v>44895</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B26" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
-    </row>
-    <row r="22" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="B22" s="45" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="45" t="s">
+      <c r="B27" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
@@ -2525,14 +2526,18 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F25:M25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -2550,8 +2555,8 @@
   </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2572,19 +2577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -2604,17 +2609,17 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2625,7 +2630,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="8">
         <f t="array" ref="E4">COUNTIF(K12:K89, "Pass")</f>
@@ -2633,7 +2638,7 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="8">
         <f t="array" ref="H4">COUNTIF(I13:I101,"High")</f>
@@ -2648,7 +2653,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="11" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E5" s="8">
         <f t="array" ref="E5">COUNTIF(K12:K89, "Fail")</f>
@@ -2656,7 +2661,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="8">
         <f>COUNTIF(I13:I101,"Medium")</f>
@@ -2671,7 +2676,7 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="8">
         <f t="array" ref="E6">COUNTIF(K12:K89, "On Hold")</f>
@@ -2679,7 +2684,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H6" s="8">
         <f>COUNTIF(I13:I101,"Low")</f>
@@ -2694,7 +2699,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="8">
         <f>COUNTIF(K12:K100,"Not Executed")</f>
@@ -2702,7 +2707,7 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H7" s="8">
         <f>SUM(H4:H6)</f>
@@ -2717,7 +2722,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E8" s="8">
         <f t="array" ref="E8">SUM(COUNTIF(K12:K89,{"Pass","Fail","On Hold","Not Executed"}))</f>
@@ -2759,59 +2764,59 @@
         <v>3</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="1" t="s">
+    <row r="12" spans="1:14" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="96" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2822,36 +2827,36 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="129.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2859,127 +2864,127 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="144" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2987,1980 +2992,1980 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4">
         <v>5678</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="41"/>
+      <c r="A39" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L44" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="41"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
+    </row>
+    <row r="47" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-    </row>
-    <row r="46" spans="1:13" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="41"/>
-    </row>
-    <row r="47" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L47" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="B48" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>183</v>
+        <v>396</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>184</v>
+        <v>400</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="187.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>32</v>
+        <v>244</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="47"/>
+    </row>
+    <row r="57" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="41"/>
-    </row>
-    <row r="57" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="B57" s="4" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" ht="100.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="16"/>
-    </row>
-    <row r="65" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="44"/>
+    </row>
+    <row r="65" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="20"/>
+      <c r="A70" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="41"/>
     </row>
     <row r="71" spans="1:13" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="16"/>
+      <c r="A71" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="44"/>
     </row>
     <row r="72" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="86.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A70:M70"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A12:M12"/>
     <mergeCell ref="A15:M15"/>
     <mergeCell ref="A39:M39"/>
     <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A56:M56"/>
-    <mergeCell ref="A64:M64"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A70:M70"/>
-    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -5097,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EEB6E1-2CCF-4B98-9A1A-FC34869673E3}">
   <dimension ref="A2:W81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5111,851 +5116,851 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="C3" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="W3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="C4" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="W4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1234</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="W3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="C6" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="B16" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15">
+        <v>123456789</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>5</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>6</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>2</v>
+      </c>
+      <c r="B28" s="15">
+        <v>123456789</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>3</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>6</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="W4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>1</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="22">
-        <v>1234</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="W5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="B40" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="B41" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="B42" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="B43" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
-        <v>2</v>
-      </c>
-      <c r="B17" s="22">
-        <v>123456789</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
-        <v>3</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
-        <v>4</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
-        <v>5</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
-        <v>6</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
-        <v>1</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>2</v>
-      </c>
-      <c r="B28" s="22">
-        <v>123456789</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
-        <v>3</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
-        <v>4</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
-        <v>5</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
-        <v>6</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="37" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="B44" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>7</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>8</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="29" t="s">
+      <c r="C46" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>9</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
-        <v>1</v>
-      </c>
-      <c r="B39" s="36" t="s">
+      <c r="C47" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>10</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
-        <v>2</v>
-      </c>
-      <c r="B40" s="36" t="s">
+      <c r="C48" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>11</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
-        <v>3</v>
-      </c>
-      <c r="B41" s="36" t="s">
+      <c r="C49" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>12</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
-        <v>4</v>
-      </c>
-      <c r="B42" s="37" t="s">
+      <c r="C50" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
+        <v>13</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
-        <v>5</v>
-      </c>
-      <c r="B43" s="38" t="s">
+      <c r="C51" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>14</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
-        <v>6</v>
-      </c>
-      <c r="B44" s="38" t="s">
+      <c r="C52" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>15</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
-        <v>7</v>
-      </c>
-      <c r="B45" s="38" t="s">
+      <c r="C53" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
+        <v>16</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="22">
-        <v>8</v>
-      </c>
-      <c r="B46" s="38" t="s">
+      <c r="C54" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
+        <v>17</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
-        <v>9</v>
-      </c>
-      <c r="B47" s="38" t="s">
+      <c r="C55" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
+        <v>18</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
-        <v>10</v>
-      </c>
-      <c r="B48" s="38" t="s">
+      <c r="C56" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
+        <v>19</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
-        <v>11</v>
-      </c>
-      <c r="B49" s="38" t="s">
+      <c r="C57" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
+        <v>20</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="22">
-        <v>12</v>
-      </c>
-      <c r="B50" s="38" t="s">
+      <c r="C58" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
+        <v>21</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
-        <v>13</v>
-      </c>
-      <c r="B51" s="38" t="s">
+      <c r="C59" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
+        <v>22</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
-        <v>14</v>
-      </c>
-      <c r="B52" s="38" t="s">
+      <c r="C60" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
+        <v>23</v>
+      </c>
+      <c r="B61" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
-        <v>15</v>
-      </c>
-      <c r="B53" s="38" t="s">
+      <c r="C61" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="15">
+        <v>24</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
-        <v>16</v>
-      </c>
-      <c r="B54" s="38" t="s">
+      <c r="C62" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
+        <v>25</v>
+      </c>
+      <c r="B63" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
-        <v>17</v>
-      </c>
-      <c r="B55" s="38" t="s">
+      <c r="C63" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
+        <v>26</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
-        <v>18</v>
-      </c>
-      <c r="B56" s="38" t="s">
+      <c r="C64" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
+        <v>27</v>
+      </c>
+      <c r="B65" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
-        <v>19</v>
-      </c>
-      <c r="B57" s="38" t="s">
+      <c r="C65" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="15">
+        <v>28</v>
+      </c>
+      <c r="B66" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
-        <v>20</v>
-      </c>
-      <c r="B58" s="38" t="s">
+      <c r="C66" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="15">
+        <v>29</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="22">
-        <v>21</v>
-      </c>
-      <c r="B59" s="38" t="s">
+      <c r="C67" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
+        <v>30</v>
+      </c>
+      <c r="B68" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="22">
-        <v>22</v>
-      </c>
-      <c r="B60" s="38" t="s">
+      <c r="C68" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="15">
+        <v>31</v>
+      </c>
+      <c r="B69" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
-        <v>23</v>
-      </c>
-      <c r="B61" s="38" t="s">
+      <c r="C69" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
+        <v>32</v>
+      </c>
+      <c r="B70" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="22">
-        <v>24</v>
-      </c>
-      <c r="B62" s="38" t="s">
+      <c r="C70" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="15">
+        <v>33</v>
+      </c>
+      <c r="B71" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
-        <v>25</v>
-      </c>
-      <c r="B63" s="38" t="s">
+      <c r="C71" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
+        <v>34</v>
+      </c>
+      <c r="B72" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
-        <v>26</v>
-      </c>
-      <c r="B64" s="38" t="s">
+      <c r="C72" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
+        <v>35</v>
+      </c>
+      <c r="B73" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="22">
-        <v>27</v>
-      </c>
-      <c r="B65" s="38" t="s">
+      <c r="C73" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
+        <v>36</v>
+      </c>
+      <c r="B74" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
-        <v>28</v>
-      </c>
-      <c r="B66" s="38" t="s">
+      <c r="C74" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
+        <v>37</v>
+      </c>
+      <c r="B75" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="22">
-        <v>29</v>
-      </c>
-      <c r="B67" s="38" t="s">
+      <c r="C75" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="15">
+        <v>38</v>
+      </c>
+      <c r="B76" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="22">
-        <v>30</v>
-      </c>
-      <c r="B68" s="38" t="s">
+      <c r="C76" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
+        <v>39</v>
+      </c>
+      <c r="B77" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
-        <v>31</v>
-      </c>
-      <c r="B69" s="38" t="s">
+      <c r="C77" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
+        <v>40</v>
+      </c>
+      <c r="B78" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="22">
-        <v>32</v>
-      </c>
-      <c r="B70" s="38" t="s">
+      <c r="C78" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
+        <v>41</v>
+      </c>
+      <c r="B79" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
-        <v>33</v>
-      </c>
-      <c r="B71" s="38" t="s">
+      <c r="C79" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
+        <v>42</v>
+      </c>
+      <c r="B80" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="22">
-        <v>34</v>
-      </c>
-      <c r="B72" s="38" t="s">
+      <c r="C80" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="15">
+        <v>43</v>
+      </c>
+      <c r="B81" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
-        <v>35</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
-        <v>36</v>
-      </c>
-      <c r="B74" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
-        <v>37</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="22">
-        <v>38</v>
-      </c>
-      <c r="B76" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
-        <v>39</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
-        <v>40</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
-        <v>41</v>
-      </c>
-      <c r="B79" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="22">
-        <v>42</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
-        <v>43</v>
-      </c>
-      <c r="B81" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>102</v>
+      <c r="C81" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
